--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T15:01:03+00:00</t>
+    <t>2022-07-26T16:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:26:43+00:00</t>
+    <t>2022-07-26T21:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:15:41+00:00</t>
+    <t>2022-07-27T03:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T03:08:26+00:00</t>
+    <t>2022-07-27T10:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T10:14:11+00:00</t>
+    <t>2022-07-29T08:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T08:56:42+00:00</t>
+    <t>2022-07-29T11:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T11:29:59+00:00</t>
+    <t>2022-08-03T10:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This value set defines the set of codes that can be used to indicate a reason for a procedure.</t>
+    <t>処置が実施された理由を示すコード</t>
   </si>
   <si>
     <t>Purpose</t>
